--- a/Analysis/Formal Analysis NAV3/Baseline/10 x 10 CA 15 Analysis.xlsx
+++ b/Analysis/Formal Analysis NAV3/Baseline/10 x 10 CA 15 Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\Baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0FFE92-8E06-4707-897A-1AF37EC49090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A7B0B-E5C9-4A70-A913-45FB0821E58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="B10CA15NAV4_output" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">B10CA15NAV4_output!$C$2:$C$301</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">B10CA15NAV4_output!$B$2:$B$301</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">B10CA15NAV4_output!$D$2:$D$301</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">B10CA15NAV4_output!$B$2:$B$301</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">B10CA15NAV4_output!$C$2:$C$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="316">
   <si>
     <t>Trial Number</t>
   </si>
@@ -974,12 +974,24 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1463,8 +1475,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1510,7 +1524,26 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1528,7 +1561,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1628,47 +1661,41 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>SODFHS 10 x 10, CA = 1.5 (n = 300</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+        <cx:txData>
+          <cx:v>RUDA Performance - 10 x 10, CA = 1.5 (n = 300)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="75000"/>
                   <a:lumOff val="25000"/>
                 </a:sysClr>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>RUDA Performance - 10 x 10, CA = 1.5 (n = 300)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
@@ -1687,6 +1714,34 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Moogles Eaten</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Moogles Eaten</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1" hidden="1">
@@ -1740,8 +1795,9 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{CCEDAA91-1E3D-44C9-9834-DDC9CD6ADA3E}" formatIdx="0">
-          <cx:dataLabels pos="inEnd">
+          <cx:dataLabels pos="outEnd">
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
@@ -3599,7 +3655,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5200970" y="644496"/>
+              <a:off x="5206413" y="644496"/>
               <a:ext cx="4572000" cy="2743202"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3677,7 +3733,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5209134" y="3669768"/>
+              <a:off x="5214577" y="3669768"/>
               <a:ext cx="4572000" cy="2733595"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3755,7 +3811,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5196328" y="6957893"/>
+              <a:off x="5201771" y="6957893"/>
               <a:ext cx="4572000" cy="2733595"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3787,6 +3843,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95989892-249D-4888-AAF4-A24023A7EA59}" name="Table1" displayName="Table1" ref="A302:D310" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A302:D310" xr:uid="{69C74B45-2A7E-4C63-8178-31F30EA89D26}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7033A915-19D8-4A05-82B5-785E045C9A05}" name="Statistic" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FACC9FA7-B159-43D8-9853-AF675BCE0434}" name="Score" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{138C8D93-543B-42F6-BB3F-6D3CD388C61A}" name="Moogles" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{33061F8A-079D-4B94-B757-B2C007C61B78}" name="Runtime" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4086,17 +4155,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D310" sqref="A302:D310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.15234375" customWidth="1"/>
-    <col min="3" max="3" width="8.69140625" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" customWidth="1"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="12.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -9217,116 +9287,153 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B302" t="s">
+      <c r="A302" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
+      <c r="A303" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="2">
         <f>AVERAGE(B2:B301)</f>
         <v>4015.35</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="2">
         <f t="shared" ref="C303:D303" si="0">AVERAGE(C2:C301)</f>
         <v>63.36</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="1">
         <f t="shared" si="0"/>
         <v>5.3325157531102478</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
+      <c r="A304" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="2">
         <f>MAX(B2:B301)</f>
         <v>5343</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="2">
         <f>MAX(C2:C301)</f>
         <v>81</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="1">
         <f>MAX(D2:D301)</f>
         <v>13.460134744644099</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
+      <c r="A305" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
         <f>MIN(B2:B301)</f>
         <v>2482</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="2">
         <f t="shared" ref="C305:D305" si="1">MIN(C2:C301)</f>
         <v>39</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="1">
         <f t="shared" si="1"/>
         <v>1.4762940406799301</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
+      <c r="A306" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
         <f>MEDIAN(B2:B301)</f>
         <v>3982.5</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="2">
         <f t="shared" ref="C306:D306" si="2">MEDIAN(C2:C301)</f>
         <v>63</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="1">
         <f t="shared" si="2"/>
         <v>4.869819402694695</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
+      <c r="A307" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
         <f>_xlfn.PERCENTILE.INC(B2:B301, 0.97)</f>
         <v>4866.1499999999996</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="2">
         <f t="shared" ref="C307:D307" si="3">_xlfn.PERCENTILE.INC(C2:C301, 0.97)</f>
         <v>76</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="1">
         <f t="shared" si="3"/>
         <v>10.053452658653169</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
+      <c r="A308" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="2">
         <f>_xlfn.PERCENTILE.INC(B2:B301, 0.05)</f>
         <v>3384.8</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="2">
         <f t="shared" ref="C308:D308" si="4">_xlfn.PERCENTILE.INC(C2:C301, 0.05)</f>
         <v>55</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="1">
         <f t="shared" si="4"/>
         <v>3.1093031167983978</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" s="2">
+        <f>_xlfn.STDEV.P(B2:B301)</f>
+        <v>430.6288047727416</v>
+      </c>
+      <c r="C309" s="2">
+        <f t="shared" ref="C309:D309" si="5">_xlfn.STDEV.P(C2:C301)</f>
+        <v>6.0781356790823065</v>
+      </c>
+      <c r="D309" s="1">
+        <f t="shared" si="5"/>
+        <v>1.953403299367007</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A310" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310" s="2">
+        <f>B304-B305</f>
+        <v>2861</v>
+      </c>
+      <c r="C310" s="2">
+        <f t="shared" ref="C310:D310" si="6">C304-C305</f>
+        <v>42</v>
+      </c>
+      <c r="D310" s="1">
+        <f t="shared" si="6"/>
+        <v>11.983840703964169</v>
       </c>
     </row>
   </sheetData>
@@ -9334,5 +9441,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Analysis/Formal Analysis NAV3/Baseline/10 x 10 CA 15 Analysis.xlsx
+++ b/Analysis/Formal Analysis NAV3/Baseline/10 x 10 CA 15 Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\Baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A7B0B-E5C9-4A70-A913-45FB0821E58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B80CDF-C29D-451D-B177-468BF1AE3D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="B10CA15NAV4_output" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">B10CA15NAV4_output!$B$2:$B$301</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">B10CA15NAV4_output!$D$2:$D$301</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">B10CA15NAV4_output!$D$2:$D$301</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">B10CA15NAV4_output!$B$2:$B$301</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">B10CA15NAV4_output!$C$2:$C$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
   <si>
     <t>Trial Number</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1477,7 +1480,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1526,7 +1529,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1561,7 +1564,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1759,7 +1762,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3655,7 +3658,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5206413" y="644496"/>
+              <a:off x="7078756" y="644496"/>
               <a:ext cx="4572000" cy="2743202"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3733,7 +3736,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5214577" y="3669768"/>
+              <a:off x="7086920" y="3669768"/>
               <a:ext cx="4572000" cy="2733595"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3811,7 +3814,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5201771" y="6957893"/>
+              <a:off x="7074114" y="6957893"/>
               <a:ext cx="4572000" cy="2733595"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3846,15 +3849,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95989892-249D-4888-AAF4-A24023A7EA59}" name="Table1" displayName="Table1" ref="A302:D310" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A302:D310" xr:uid="{69C74B45-2A7E-4C63-8178-31F30EA89D26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95989892-249D-4888-AAF4-A24023A7EA59}" name="Table1" displayName="Table1" ref="A302:D311" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A302:D311" xr:uid="{69C74B45-2A7E-4C63-8178-31F30EA89D26}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7033A915-19D8-4A05-82B5-785E045C9A05}" name="Statistic" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FACC9FA7-B159-43D8-9853-AF675BCE0434}" name="Score" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7033A915-19D8-4A05-82B5-785E045C9A05}" name="Statistic" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FACC9FA7-B159-43D8-9853-AF675BCE0434}" name="Score" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{138C8D93-543B-42F6-BB3F-6D3CD388C61A}" name="Moogles" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{33061F8A-079D-4B94-B757-B2C007C61B78}" name="Runtime" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B41D834-698E-4207-8B7D-A596BB1AE116}" name="Table2" displayName="Table2" ref="A1:E301" totalsRowShown="0">
+  <autoFilter ref="A1:E301" xr:uid="{1D23017F-84A4-4DBC-B527-90D54CFF4E07}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2E448BA6-54DD-49C6-8A08-09F395A7A18B}" name="Trial Number"/>
+    <tableColumn id="2" xr3:uid="{A60CBECF-1796-456F-AB72-9D54FE58B096}" name="Score"/>
+    <tableColumn id="3" xr3:uid="{C9FDF181-CAF8-4366-BB9D-5309CA3F190B}" name="Moogles Eaten"/>
+    <tableColumn id="4" xr3:uid="{995229B9-FB8C-4BD6-A764-AED939DF714B}" name="Time Taken"/>
+    <tableColumn id="5" xr3:uid="{A452F235-7A4C-4B70-A186-76A84CB8845C}" name="Data Location"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4155,18 +4172,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D310" sqref="A302:D310"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D311" sqref="A311:D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.07421875" customWidth="1"/>
     <col min="2" max="2" width="12.3828125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="3" max="3" width="13.765625" customWidth="1"/>
     <col min="4" max="4" width="12.84375" customWidth="1"/>
+    <col min="5" max="5" width="21.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -9436,13 +9454,31 @@
         <v>11.983840703964169</v>
       </c>
     </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B311" s="2">
+        <f>_xlfn.PERCENTILE.INC(Table2[Score],0.75)-_xlfn.PERCENTILE.INC(Table2[Score], 0.25)</f>
+        <v>527</v>
+      </c>
+      <c r="C311" s="2">
+        <f>_xlfn.PERCENTILE.INC(Table2[Moogles Eaten],0.75)-_xlfn.PERCENTILE.INC(Table2[Moogles Eaten], 0.25)</f>
+        <v>8</v>
+      </c>
+      <c r="D311" s="2">
+        <f>_xlfn.PERCENTILE.INC(Table2[Time Taken],0.75)-_xlfn.PERCENTILE.INC(Table2[Time Taken], 0.25)</f>
+        <v>2.4569839239120475</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>